--- a/Code/Results/Cases/Case_0_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_227/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.128821501883865</v>
+        <v>4.913466868314117</v>
       </c>
       <c r="D2">
-        <v>2.32661482900424</v>
+        <v>4.974717575750659</v>
       </c>
       <c r="E2">
-        <v>8.532224646772345</v>
+        <v>11.89928052036628</v>
       </c>
       <c r="F2">
-        <v>47.64341137037785</v>
+        <v>54.02291936365518</v>
       </c>
       <c r="G2">
-        <v>2.084891860888749</v>
+        <v>3.757244556015275</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.931635869328463</v>
+        <v>10.67697398816715</v>
       </c>
       <c r="K2">
-        <v>28.44502030478503</v>
+        <v>26.10802592334882</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.44082606918319</v>
+        <v>20.7198015348872</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.602480932235021</v>
+        <v>4.759908487695879</v>
       </c>
       <c r="D3">
-        <v>2.264614450965022</v>
+        <v>4.974436631257694</v>
       </c>
       <c r="E3">
-        <v>8.202981025029587</v>
+        <v>11.88427107157284</v>
       </c>
       <c r="F3">
-        <v>45.56138616381445</v>
+        <v>53.7937660109483</v>
       </c>
       <c r="G3">
-        <v>2.100811748413257</v>
+        <v>3.762479786818904</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.795411428574684</v>
+        <v>10.68911004455734</v>
       </c>
       <c r="K3">
-        <v>26.61639447892199</v>
+        <v>25.73080529489204</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.73718311994016</v>
+        <v>20.79333815662428</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.265215626511633</v>
+        <v>4.664900698798035</v>
       </c>
       <c r="D4">
-        <v>2.226457133770233</v>
+        <v>4.974617835609537</v>
       </c>
       <c r="E4">
-        <v>8.002652185579374</v>
+        <v>11.87765257330295</v>
       </c>
       <c r="F4">
-        <v>44.30779403329217</v>
+        <v>53.66863397303585</v>
       </c>
       <c r="G4">
-        <v>2.110709731595926</v>
+        <v>3.765854112189243</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.717216498471743</v>
+        <v>10.69859822522791</v>
       </c>
       <c r="K4">
-        <v>25.46422639447882</v>
+        <v>25.50482197456951</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.92243093099366</v>
+        <v>20.8405604128753</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.124115311086385</v>
+        <v>4.626070104025866</v>
       </c>
       <c r="D5">
-        <v>2.210888117067252</v>
+        <v>4.974781222990331</v>
       </c>
       <c r="E5">
-        <v>7.921516872177101</v>
+        <v>11.87560957687376</v>
       </c>
       <c r="F5">
-        <v>43.80316133244786</v>
+        <v>53.62157279070266</v>
       </c>
       <c r="G5">
-        <v>2.114781001731473</v>
+        <v>3.76726956594579</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.686664807002416</v>
+        <v>10.70297556284399</v>
       </c>
       <c r="K5">
-        <v>24.98738129695883</v>
+        <v>25.41426062280862</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.99877331061147</v>
+        <v>20.86032526993323</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.100461275396553</v>
+        <v>4.619617467306258</v>
       </c>
       <c r="D6">
-        <v>2.208301853141668</v>
+        <v>4.974813779249841</v>
       </c>
       <c r="E6">
-        <v>7.908076131522244</v>
+        <v>11.87530986397381</v>
       </c>
       <c r="F6">
-        <v>43.71974463814383</v>
+        <v>53.61399610720103</v>
       </c>
       <c r="G6">
-        <v>2.115459498314205</v>
+        <v>3.767507045835175</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.681669480044987</v>
+        <v>10.70373322913028</v>
       </c>
       <c r="K6">
-        <v>24.90776344270975</v>
+        <v>25.39931853169111</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.01150222409382</v>
+        <v>20.86363872381366</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.263327674510633</v>
+        <v>4.664377385947702</v>
       </c>
       <c r="D7">
-        <v>2.226247237885888</v>
+        <v>4.974619675746174</v>
       </c>
       <c r="E7">
-        <v>8.001555874954574</v>
+        <v>11.87762237137199</v>
       </c>
       <c r="F7">
-        <v>44.30096314644855</v>
+        <v>53.66798335524508</v>
       </c>
       <c r="G7">
-        <v>2.110764476831773</v>
+        <v>3.765873037711506</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.716799221136458</v>
+        <v>10.69865519298881</v>
       </c>
       <c r="K7">
-        <v>25.45782498116365</v>
+        <v>25.50359429660084</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.92345702215543</v>
+        <v>20.8408248564456</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.95018827711423</v>
+        <v>4.860709095981092</v>
       </c>
       <c r="D8">
-        <v>2.305256054728814</v>
+        <v>4.974547656068479</v>
       </c>
       <c r="E8">
-        <v>8.418340834229317</v>
+        <v>11.89356689013165</v>
       </c>
       <c r="F8">
-        <v>46.92033706051324</v>
+        <v>53.94068735291778</v>
       </c>
       <c r="G8">
-        <v>2.090359838501697</v>
+        <v>3.759016595337732</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.883499443263871</v>
+        <v>10.68073506022057</v>
       </c>
       <c r="K8">
-        <v>27.82060298153205</v>
+        <v>25.97685986213365</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.54234357970823</v>
+        <v>20.74472769714923</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.191410748881223</v>
+        <v>5.237232490263636</v>
       </c>
       <c r="D9">
-        <v>2.459589087166014</v>
+        <v>4.977186837231</v>
       </c>
       <c r="E9">
-        <v>9.249472203874785</v>
+        <v>11.94538272065092</v>
       </c>
       <c r="F9">
-        <v>52.26240935305157</v>
+        <v>54.59802423558898</v>
       </c>
       <c r="G9">
-        <v>2.050967449964405</v>
+        <v>3.746831076755593</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.256533120622064</v>
+        <v>10.66180751758123</v>
       </c>
       <c r="K9">
-        <v>32.59873123890802</v>
+        <v>26.94454194997222</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.82006749528424</v>
+        <v>20.57267342274969</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.048798061288563</v>
+        <v>5.505333993711097</v>
       </c>
       <c r="D10">
-        <v>2.573173569197267</v>
+        <v>4.980786436644986</v>
       </c>
       <c r="E10">
-        <v>9.869670202947679</v>
+        <v>11.99587242675638</v>
       </c>
       <c r="F10">
-        <v>56.3406510025836</v>
+        <v>55.15403235109876</v>
       </c>
       <c r="G10">
-        <v>2.021813472164305</v>
+        <v>3.738634444156615</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.563647277239157</v>
+        <v>10.6578551339844</v>
       </c>
       <c r="K10">
-        <v>36.00704211376038</v>
+        <v>27.67275430673451</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.30401965670677</v>
+        <v>20.45620560591766</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.429738183427537</v>
+        <v>5.624834065728566</v>
       </c>
       <c r="D11">
-        <v>2.625164519907166</v>
+        <v>4.98277722626521</v>
       </c>
       <c r="E11">
-        <v>10.15485973192212</v>
+        <v>12.02150646540605</v>
       </c>
       <c r="F11">
-        <v>58.2411194796584</v>
+        <v>55.42237590283129</v>
       </c>
       <c r="G11">
-        <v>2.008337231397373</v>
+        <v>3.735067167045011</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.711986784356998</v>
+        <v>10.65823083680208</v>
       </c>
       <c r="K11">
-        <v>37.52394828852287</v>
+        <v>28.00632314141984</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.07259950062143</v>
+        <v>20.40536919075778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.572966560173384</v>
+        <v>5.669687153096191</v>
       </c>
       <c r="D12">
-        <v>2.644935130219925</v>
+        <v>4.9835812575545</v>
       </c>
       <c r="E12">
-        <v>10.2634347848539</v>
+        <v>12.03159326365679</v>
       </c>
       <c r="F12">
-        <v>58.96877973577622</v>
+        <v>55.52615983516331</v>
       </c>
       <c r="G12">
-        <v>2.003185727218227</v>
+        <v>3.733739340689678</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.769559499960336</v>
+        <v>10.65868642659602</v>
       </c>
       <c r="K12">
-        <v>38.09463219258357</v>
+        <v>28.13284803118531</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.98549797652057</v>
+        <v>20.38642662174268</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.54216025514785</v>
+        <v>5.660045653110501</v>
       </c>
       <c r="D13">
-        <v>2.640672760255183</v>
+        <v>4.983405874326791</v>
       </c>
       <c r="E13">
-        <v>10.24002254600929</v>
+        <v>12.02940406442488</v>
       </c>
       <c r="F13">
-        <v>58.8116804765797</v>
+        <v>55.50371250030162</v>
       </c>
       <c r="G13">
-        <v>2.004297667453147</v>
+        <v>3.73402429082873</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.757094961183713</v>
+        <v>10.65857436176134</v>
       </c>
       <c r="K13">
-        <v>37.97187130417804</v>
+        <v>28.10559121014036</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.00423189033746</v>
+        <v>20.39049254728337</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.441540397206484</v>
+        <v>5.628532394736723</v>
       </c>
       <c r="D14">
-        <v>2.626789141572374</v>
+        <v>4.98284237276739</v>
       </c>
       <c r="E14">
-        <v>10.16377963165923</v>
+        <v>12.0223287240778</v>
       </c>
       <c r="F14">
-        <v>58.30081401799269</v>
+        <v>55.43087111106269</v>
       </c>
       <c r="G14">
-        <v>2.007914497340009</v>
+        <v>3.734957465607004</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.716694218305848</v>
+        <v>10.65826203526278</v>
       </c>
       <c r="K14">
-        <v>37.57096653512499</v>
+        <v>28.01672890385045</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06542248997425</v>
+        <v>20.40380460214474</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.379783637536097</v>
+        <v>5.609176392661034</v>
       </c>
       <c r="D15">
-        <v>2.618297125744656</v>
+        <v>4.982503725279718</v>
       </c>
       <c r="E15">
-        <v>10.11715932587464</v>
+        <v>12.01804421250692</v>
       </c>
       <c r="F15">
-        <v>57.98898719188306</v>
+        <v>55.38653449088328</v>
       </c>
       <c r="G15">
-        <v>2.010123027585679</v>
+        <v>3.735532054963869</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.692135285958628</v>
+        <v>10.658111549565</v>
       </c>
       <c r="K15">
-        <v>37.32495084761385</v>
+        <v>27.96232192164794</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.1029750716752</v>
+        <v>20.41199872911903</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.023742639649699</v>
+        <v>5.497470900780854</v>
       </c>
       <c r="D16">
-        <v>2.569785122251374</v>
+        <v>4.980663388486517</v>
       </c>
       <c r="E16">
-        <v>9.851104638809343</v>
+        <v>11.99425052940297</v>
       </c>
       <c r="F16">
-        <v>56.21747773342324</v>
+        <v>55.13680159034503</v>
       </c>
       <c r="G16">
-        <v>2.022688451695813</v>
+        <v>3.738870806170871</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.554139297547477</v>
+        <v>10.65787438776369</v>
       </c>
       <c r="K16">
-        <v>35.90732126210519</v>
+        <v>27.65099067391752</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.31921424044566</v>
+        <v>20.4595710183733</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.803178417639609</v>
+        <v>5.428279339494494</v>
       </c>
       <c r="D17">
-        <v>2.540128734979592</v>
+        <v>4.979624436603788</v>
       </c>
       <c r="E17">
-        <v>9.688754423765927</v>
+        <v>11.9803342693474</v>
       </c>
       <c r="F17">
-        <v>55.14321560803921</v>
+        <v>54.98751323406481</v>
       </c>
       <c r="G17">
-        <v>2.030330747500104</v>
+        <v>3.740960230622024</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.471794917594754</v>
+        <v>10.65828620051924</v>
       </c>
       <c r="K17">
-        <v>35.0297599639991</v>
+        <v>27.46050130131838</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.45274982321805</v>
+        <v>20.48930424351013</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.675440408398584</v>
+        <v>5.388252970837235</v>
       </c>
       <c r="D18">
-        <v>2.523098469561457</v>
+        <v>4.979060153213157</v>
       </c>
       <c r="E18">
-        <v>9.595651301174673</v>
+        <v>11.97258118880397</v>
       </c>
       <c r="F18">
-        <v>54.52947360519072</v>
+        <v>54.90310042944832</v>
       </c>
       <c r="G18">
-        <v>2.034707498321972</v>
+        <v>3.742177216376083</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.425233584203317</v>
+        <v>10.65872762363185</v>
       </c>
       <c r="K18">
-        <v>34.5217741355881</v>
+        <v>27.35116058146861</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.52986463247578</v>
+        <v>20.50660796416699</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.63203247950314</v>
+        <v>5.374662815938825</v>
       </c>
       <c r="D19">
-        <v>2.517336099807953</v>
+        <v>4.978874834443249</v>
       </c>
       <c r="E19">
-        <v>9.564172290850392</v>
+        <v>11.9699993731993</v>
       </c>
       <c r="F19">
-        <v>54.32234541290358</v>
+        <v>54.87477080900106</v>
       </c>
       <c r="G19">
-        <v>2.036186622851859</v>
+        <v>3.742591883837964</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.409602075611925</v>
+        <v>10.65891219006009</v>
       </c>
       <c r="K19">
-        <v>34.34919373130016</v>
+        <v>27.31418185953817</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.55602637851495</v>
+        <v>20.51250140637725</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.826746582191694</v>
+        <v>5.435668963987946</v>
       </c>
       <c r="D20">
-        <v>2.543282659179414</v>
+        <v>4.97973159362965</v>
       </c>
       <c r="E20">
-        <v>9.706007436095025</v>
+        <v>11.98178970723066</v>
       </c>
       <c r="F20">
-        <v>55.25713439632415</v>
+        <v>55.00325509543966</v>
       </c>
       <c r="G20">
-        <v>2.029519283347025</v>
+        <v>3.740736235611096</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.480476695565669</v>
+        <v>10.65822118537582</v>
       </c>
       <c r="K20">
-        <v>35.12350562268848</v>
+        <v>27.48075695294361</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.43850252248376</v>
+        <v>20.48611819249104</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.471120182580147</v>
+        <v>5.637799767979294</v>
       </c>
       <c r="D21">
-        <v>2.630864489338637</v>
+        <v>4.983006530584716</v>
       </c>
       <c r="E21">
-        <v>10.18615687518143</v>
+        <v>12.02439664800313</v>
       </c>
       <c r="F21">
-        <v>58.45063659303924</v>
+        <v>55.45220795963581</v>
       </c>
       <c r="G21">
-        <v>2.006853617993627</v>
+        <v>3.734682746177757</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.72852143877228</v>
+        <v>10.65834526444393</v>
       </c>
       <c r="K21">
-        <v>37.68881344573753</v>
+        <v>28.04282518083457</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.04743425765685</v>
+        <v>20.39988617094342</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.886455004642743</v>
+        <v>5.767560587556175</v>
       </c>
       <c r="D22">
-        <v>2.688614563816143</v>
+        <v>4.98543897596329</v>
       </c>
       <c r="E22">
-        <v>10.50345278869977</v>
+        <v>12.05445419370273</v>
       </c>
       <c r="F22">
-        <v>60.58544586044468</v>
+        <v>55.75823616649327</v>
       </c>
       <c r="G22">
-        <v>1.99174735103431</v>
+        <v>3.730860555769137</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.89889773231442</v>
+        <v>10.66025287165101</v>
       </c>
       <c r="K22">
-        <v>39.34431570297994</v>
+        <v>28.41133698868089</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.79500829051472</v>
+        <v>20.34532410996409</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.665204612817179</v>
+        <v>5.698532932357669</v>
       </c>
       <c r="D23">
-        <v>2.657729621052029</v>
+        <v>4.984114221661576</v>
       </c>
       <c r="E23">
-        <v>10.33372430210981</v>
+        <v>12.0382108803896</v>
       </c>
       <c r="F23">
-        <v>59.44106810405767</v>
+        <v>55.59376629679713</v>
       </c>
       <c r="G23">
-        <v>1.999843523440427</v>
+        <v>3.732888321032134</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.80714471215861</v>
+        <v>10.65906740778181</v>
       </c>
       <c r="K23">
-        <v>38.4622429076705</v>
+        <v>28.21458774299115</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.92941469961508</v>
+        <v>20.37428074431792</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.816094340634438</v>
+        <v>5.432328881307297</v>
       </c>
       <c r="D24">
-        <v>2.541856711612401</v>
+        <v>4.979683045028337</v>
       </c>
       <c r="E24">
-        <v>9.698206629589697</v>
+        <v>11.98113093239133</v>
       </c>
       <c r="F24">
-        <v>55.20561977704166</v>
+        <v>54.99613378870954</v>
       </c>
       <c r="G24">
-        <v>2.02988619767638</v>
+        <v>3.740837454690101</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.476549247026353</v>
+        <v>10.65824994128978</v>
       </c>
       <c r="K24">
-        <v>35.0811340793256</v>
+        <v>27.4715988211451</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.44494266085536</v>
+        <v>20.48755795297587</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.866012480284549</v>
+        <v>5.136646375813124</v>
       </c>
       <c r="D25">
-        <v>2.417867767820301</v>
+        <v>4.97617874681366</v>
       </c>
       <c r="E25">
-        <v>9.023144513551738</v>
+        <v>11.92917442717927</v>
       </c>
       <c r="F25">
-        <v>50.79322039286173</v>
+        <v>54.4072250828703</v>
       </c>
       <c r="G25">
-        <v>2.061612633331499</v>
+        <v>3.749993939189542</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.150225932920606</v>
+        <v>10.66518446128165</v>
       </c>
       <c r="K25">
-        <v>31.30779395189396</v>
+        <v>26.67922789611611</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.01288960525864</v>
+        <v>20.61746936317399</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_227/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.913466868314117</v>
+        <v>7.128821501883828</v>
       </c>
       <c r="D2">
-        <v>4.974717575750659</v>
+        <v>2.326614829004134</v>
       </c>
       <c r="E2">
-        <v>11.89928052036628</v>
+        <v>8.5322246467724</v>
       </c>
       <c r="F2">
-        <v>54.02291936365518</v>
+        <v>47.64341137037786</v>
       </c>
       <c r="G2">
-        <v>3.757244556015275</v>
+        <v>2.084891860889022</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.67697398816715</v>
+        <v>6.931635869328527</v>
       </c>
       <c r="K2">
-        <v>26.10802592334882</v>
+        <v>28.44502030478505</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.7198015348872</v>
+        <v>13.44082606918314</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759908487695879</v>
+        <v>6.602480932235203</v>
       </c>
       <c r="D3">
-        <v>4.974436631257694</v>
+        <v>2.264614450964815</v>
       </c>
       <c r="E3">
-        <v>11.88427107157284</v>
+        <v>8.202981025029557</v>
       </c>
       <c r="F3">
-        <v>53.7937660109483</v>
+        <v>45.56138616381455</v>
       </c>
       <c r="G3">
-        <v>3.762479786818904</v>
+        <v>2.100811748412863</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.68911004455734</v>
+        <v>6.795411428574738</v>
       </c>
       <c r="K3">
-        <v>25.73080529489204</v>
+        <v>26.61639447892202</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.79333815662428</v>
+        <v>13.7371831199402</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.664900698798035</v>
+        <v>6.265215626511515</v>
       </c>
       <c r="D4">
-        <v>4.974617835609537</v>
+        <v>2.226457133770412</v>
       </c>
       <c r="E4">
-        <v>11.87765257330295</v>
+        <v>8.002652185579368</v>
       </c>
       <c r="F4">
-        <v>53.66863397303585</v>
+        <v>44.30779403329218</v>
       </c>
       <c r="G4">
-        <v>3.765854112189243</v>
+        <v>2.110709731596062</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.69859822522791</v>
+        <v>6.717216498471662</v>
       </c>
       <c r="K4">
-        <v>25.50482197456951</v>
+        <v>25.46422639447884</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.8405604128753</v>
+        <v>13.9224309309936</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.626070104025866</v>
+        <v>6.124115311086401</v>
       </c>
       <c r="D5">
-        <v>4.974781222990331</v>
+        <v>2.210888117067242</v>
       </c>
       <c r="E5">
-        <v>11.87560957687376</v>
+        <v>7.921516872177167</v>
       </c>
       <c r="F5">
-        <v>53.62157279070266</v>
+        <v>43.80316133244776</v>
       </c>
       <c r="G5">
-        <v>3.76726956594579</v>
+        <v>2.114781001731738</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.70297556284399</v>
+        <v>6.686664807002495</v>
       </c>
       <c r="K5">
-        <v>25.41426062280862</v>
+        <v>24.98738129695881</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.86032526993323</v>
+        <v>13.9987733106114</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.619617467306258</v>
+        <v>6.100461275396841</v>
       </c>
       <c r="D6">
-        <v>4.974813779249841</v>
+        <v>2.208301853141774</v>
       </c>
       <c r="E6">
-        <v>11.87530986397381</v>
+        <v>7.908076131522281</v>
       </c>
       <c r="F6">
-        <v>53.61399610720103</v>
+        <v>43.71974463814348</v>
       </c>
       <c r="G6">
-        <v>3.767507045835175</v>
+        <v>2.115459498314467</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.70373322913028</v>
+        <v>6.681669480044977</v>
       </c>
       <c r="K6">
-        <v>25.39931853169111</v>
+        <v>24.90776344270975</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.86363872381366</v>
+        <v>14.01150222409365</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.664377385947702</v>
+        <v>6.263327674510631</v>
       </c>
       <c r="D7">
-        <v>4.974619675746174</v>
+        <v>2.226247237885943</v>
       </c>
       <c r="E7">
-        <v>11.87762237137199</v>
+        <v>8.001555874954549</v>
       </c>
       <c r="F7">
-        <v>53.66798335524508</v>
+        <v>44.3009631464485</v>
       </c>
       <c r="G7">
-        <v>3.765873037711506</v>
+        <v>2.110764476831904</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.69865519298881</v>
+        <v>6.716799221136423</v>
       </c>
       <c r="K7">
-        <v>25.50359429660084</v>
+        <v>25.45782498116363</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.8408248564456</v>
+        <v>13.92345702215541</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860709095981092</v>
+        <v>6.950188277114163</v>
       </c>
       <c r="D8">
-        <v>4.974547656068479</v>
+        <v>2.305256054728692</v>
       </c>
       <c r="E8">
-        <v>11.89356689013165</v>
+        <v>8.418340834229316</v>
       </c>
       <c r="F8">
-        <v>53.94068735291778</v>
+        <v>46.92033706051322</v>
       </c>
       <c r="G8">
-        <v>3.759016595337732</v>
+        <v>2.090359838501691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.68073506022057</v>
+        <v>6.883499443263921</v>
       </c>
       <c r="K8">
-        <v>25.97685986213365</v>
+        <v>27.82060298153204</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.74472769714923</v>
+        <v>13.54234357970826</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.237232490263636</v>
+        <v>8.191410748881452</v>
       </c>
       <c r="D9">
-        <v>4.977186837231</v>
+        <v>2.459589087166115</v>
       </c>
       <c r="E9">
-        <v>11.94538272065092</v>
+        <v>9.249472203874779</v>
       </c>
       <c r="F9">
-        <v>54.59802423558898</v>
+        <v>52.26240935305162</v>
       </c>
       <c r="G9">
-        <v>3.746831076755593</v>
+        <v>2.050967449964265</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.66180751758123</v>
+        <v>7.256533120622032</v>
       </c>
       <c r="K9">
-        <v>26.94454194997222</v>
+        <v>32.59873123890814</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.57267342274969</v>
+        <v>12.82006749528414</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.505333993711097</v>
+        <v>9.048798061288727</v>
       </c>
       <c r="D10">
-        <v>4.980786436644986</v>
+        <v>2.57317356919706</v>
       </c>
       <c r="E10">
-        <v>11.99587242675638</v>
+        <v>9.869670202947662</v>
       </c>
       <c r="F10">
-        <v>55.15403235109876</v>
+        <v>56.34065100258378</v>
       </c>
       <c r="G10">
-        <v>3.738634444156615</v>
+        <v>2.021813472164176</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.6578551339844</v>
+        <v>7.563647277239177</v>
       </c>
       <c r="K10">
-        <v>27.67275430673451</v>
+        <v>36.00704211376053</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.45620560591766</v>
+        <v>12.30401965670677</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.624834065728566</v>
+        <v>9.429738183427537</v>
       </c>
       <c r="D11">
-        <v>4.98277722626521</v>
+        <v>2.625164519907238</v>
       </c>
       <c r="E11">
-        <v>12.02150646540605</v>
+        <v>10.15485973192214</v>
       </c>
       <c r="F11">
-        <v>55.42237590283129</v>
+        <v>58.24111947965862</v>
       </c>
       <c r="G11">
-        <v>3.735067167045011</v>
+        <v>2.008337231397376</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.65823083680208</v>
+        <v>7.711986784356998</v>
       </c>
       <c r="K11">
-        <v>28.00632314141984</v>
+        <v>37.52394828852315</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.40536919075778</v>
+        <v>12.07259950062133</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.669687153096191</v>
+        <v>9.572966560173478</v>
       </c>
       <c r="D12">
-        <v>4.9835812575545</v>
+        <v>2.644935130219841</v>
       </c>
       <c r="E12">
-        <v>12.03159326365679</v>
+        <v>10.26343478485389</v>
       </c>
       <c r="F12">
-        <v>55.52615983516331</v>
+        <v>58.96877973577629</v>
       </c>
       <c r="G12">
-        <v>3.733739340689678</v>
+        <v>2.003185727218485</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.65868642659602</v>
+        <v>7.769559499960329</v>
       </c>
       <c r="K12">
-        <v>28.13284803118531</v>
+        <v>38.09463219258365</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.38642662174268</v>
+        <v>11.98549797652058</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.660045653110501</v>
+        <v>9.542160255147838</v>
       </c>
       <c r="D13">
-        <v>4.983405874326791</v>
+        <v>2.640672760255195</v>
       </c>
       <c r="E13">
-        <v>12.02940406442488</v>
+        <v>10.24002254600931</v>
       </c>
       <c r="F13">
-        <v>55.50371250030162</v>
+        <v>58.8116804765797</v>
       </c>
       <c r="G13">
-        <v>3.73402429082873</v>
+        <v>2.004297667452892</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.65857436176134</v>
+        <v>7.75709496118375</v>
       </c>
       <c r="K13">
-        <v>28.10559121014036</v>
+        <v>37.97187130417804</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.39049254728337</v>
+        <v>12.00423189033749</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.628532394736723</v>
+        <v>9.441540397206543</v>
       </c>
       <c r="D14">
-        <v>4.98284237276739</v>
+        <v>2.62678914157223</v>
       </c>
       <c r="E14">
-        <v>12.0223287240778</v>
+        <v>10.16377963165919</v>
       </c>
       <c r="F14">
-        <v>55.43087111106269</v>
+        <v>58.30081401799259</v>
       </c>
       <c r="G14">
-        <v>3.734957465607004</v>
+        <v>2.007914497340273</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.65826203526278</v>
+        <v>7.716694218305816</v>
       </c>
       <c r="K14">
-        <v>28.01672890385045</v>
+        <v>37.57096653512485</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.40380460214474</v>
+        <v>12.06542248997435</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.609176392661034</v>
+        <v>9.379783637536125</v>
       </c>
       <c r="D15">
-        <v>4.982503725279718</v>
+        <v>2.618297125744704</v>
       </c>
       <c r="E15">
-        <v>12.01804421250692</v>
+        <v>10.11715932587466</v>
       </c>
       <c r="F15">
-        <v>55.38653449088328</v>
+        <v>57.988987191883</v>
       </c>
       <c r="G15">
-        <v>3.735532054963869</v>
+        <v>2.010123027586076</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.658111549565</v>
+        <v>7.692135285958655</v>
       </c>
       <c r="K15">
-        <v>27.96232192164794</v>
+        <v>37.3249508476138</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.41199872911903</v>
+        <v>12.10297507167524</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.497470900780854</v>
+        <v>9.023742639649727</v>
       </c>
       <c r="D16">
-        <v>4.980663388486517</v>
+        <v>2.569785122251337</v>
       </c>
       <c r="E16">
-        <v>11.99425052940297</v>
+        <v>9.851104638809316</v>
       </c>
       <c r="F16">
-        <v>55.13680159034503</v>
+        <v>56.21747773342322</v>
       </c>
       <c r="G16">
-        <v>3.738870806170871</v>
+        <v>2.022688451695946</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.65787438776369</v>
+        <v>7.554139297547419</v>
       </c>
       <c r="K16">
-        <v>27.65099067391752</v>
+        <v>35.9073212621052</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.4595710183733</v>
+        <v>12.31921424044562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.428279339494494</v>
+        <v>8.803178417639641</v>
       </c>
       <c r="D17">
-        <v>4.979624436603788</v>
+        <v>2.540128734979494</v>
       </c>
       <c r="E17">
-        <v>11.9803342693474</v>
+        <v>9.68875442376592</v>
       </c>
       <c r="F17">
-        <v>54.98751323406481</v>
+        <v>55.14321560803898</v>
       </c>
       <c r="G17">
-        <v>3.740960230622024</v>
+        <v>2.030330747500239</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.65828620051924</v>
+        <v>7.471794917594774</v>
       </c>
       <c r="K17">
-        <v>27.46050130131838</v>
+        <v>35.02975996399902</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.48930424351013</v>
+        <v>12.45274982321807</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.388252970837235</v>
+        <v>8.67544040839854</v>
       </c>
       <c r="D18">
-        <v>4.979060153213157</v>
+        <v>2.523098469561468</v>
       </c>
       <c r="E18">
-        <v>11.97258118880397</v>
+        <v>9.595651301174712</v>
       </c>
       <c r="F18">
-        <v>54.90310042944832</v>
+        <v>54.52947360519084</v>
       </c>
       <c r="G18">
-        <v>3.742177216376083</v>
+        <v>2.034707498322231</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.65872762363185</v>
+        <v>7.425233584203357</v>
       </c>
       <c r="K18">
-        <v>27.35116058146861</v>
+        <v>34.52177413558816</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.50660796416699</v>
+        <v>12.52986463247583</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.374662815938825</v>
+        <v>8.63203247950308</v>
       </c>
       <c r="D19">
-        <v>4.978874834443249</v>
+        <v>2.517336099807953</v>
       </c>
       <c r="E19">
-        <v>11.9699993731993</v>
+        <v>9.564172290850383</v>
       </c>
       <c r="F19">
-        <v>54.87477080900106</v>
+        <v>54.32234541290356</v>
       </c>
       <c r="G19">
-        <v>3.742591883837964</v>
+        <v>2.036186622851989</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.65891219006009</v>
+        <v>7.409602075611876</v>
       </c>
       <c r="K19">
-        <v>27.31418185953817</v>
+        <v>34.34919373130014</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.51250140637725</v>
+        <v>12.55602637851498</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.435668963987946</v>
+        <v>8.826746582191767</v>
       </c>
       <c r="D20">
-        <v>4.97973159362965</v>
+        <v>2.543282659179364</v>
       </c>
       <c r="E20">
-        <v>11.98178970723066</v>
+        <v>9.706007436095001</v>
       </c>
       <c r="F20">
-        <v>55.00325509543966</v>
+        <v>55.25713439632401</v>
       </c>
       <c r="G20">
-        <v>3.740736235611096</v>
+        <v>2.029519283347021</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.65822118537582</v>
+        <v>7.480476695565666</v>
       </c>
       <c r="K20">
-        <v>27.48075695294361</v>
+        <v>35.1235056226883</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.48611819249104</v>
+        <v>12.43850252248382</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.637799767979294</v>
+        <v>9.471120182580101</v>
       </c>
       <c r="D21">
-        <v>4.983006530584716</v>
+        <v>2.630864489338612</v>
       </c>
       <c r="E21">
-        <v>12.02439664800313</v>
+        <v>10.18615687518142</v>
       </c>
       <c r="F21">
-        <v>55.45220795963581</v>
+        <v>58.45063659303921</v>
       </c>
       <c r="G21">
-        <v>3.734682746177757</v>
+        <v>2.006853617993762</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.65834526444393</v>
+        <v>7.728521438772286</v>
       </c>
       <c r="K21">
-        <v>28.04282518083457</v>
+        <v>37.68881344573746</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.39988617094342</v>
+        <v>12.04743425765693</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.767560587556175</v>
+        <v>9.886455004642759</v>
       </c>
       <c r="D22">
-        <v>4.98543897596329</v>
+        <v>2.688614563816179</v>
       </c>
       <c r="E22">
-        <v>12.05445419370273</v>
+        <v>10.50345278869979</v>
       </c>
       <c r="F22">
-        <v>55.75823616649327</v>
+        <v>60.5854458604448</v>
       </c>
       <c r="G22">
-        <v>3.730860555769137</v>
+        <v>1.991747351034326</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.66025287165101</v>
+        <v>7.898897732314422</v>
       </c>
       <c r="K22">
-        <v>28.41133698868089</v>
+        <v>39.34431570298004</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.34532410996409</v>
+        <v>11.79500829051471</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.698532932357669</v>
+        <v>9.665204612817105</v>
       </c>
       <c r="D23">
-        <v>4.984114221661576</v>
+        <v>2.657729621051897</v>
       </c>
       <c r="E23">
-        <v>12.0382108803896</v>
+        <v>10.33372430210979</v>
       </c>
       <c r="F23">
-        <v>55.59376629679713</v>
+        <v>59.44106810405758</v>
       </c>
       <c r="G23">
-        <v>3.732888321032134</v>
+        <v>1.999843523440304</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.65906740778181</v>
+        <v>7.807144712158605</v>
       </c>
       <c r="K23">
-        <v>28.21458774299115</v>
+        <v>38.46224290767044</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.37428074431792</v>
+        <v>11.92941469961512</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.432328881307297</v>
+        <v>8.816094340634393</v>
       </c>
       <c r="D24">
-        <v>4.979683045028337</v>
+        <v>2.541856711612314</v>
       </c>
       <c r="E24">
-        <v>11.98113093239133</v>
+        <v>9.698206629589698</v>
       </c>
       <c r="F24">
-        <v>54.99613378870954</v>
+        <v>55.20561977704151</v>
       </c>
       <c r="G24">
-        <v>3.740837454690101</v>
+        <v>2.029886197676378</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.65824994128978</v>
+        <v>7.47654924702634</v>
       </c>
       <c r="K24">
-        <v>27.4715988211451</v>
+        <v>35.08113407932548</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.48755795297587</v>
+        <v>12.44494266085539</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.136646375813124</v>
+        <v>7.866012480284322</v>
       </c>
       <c r="D25">
-        <v>4.97617874681366</v>
+        <v>2.417867767820137</v>
       </c>
       <c r="E25">
-        <v>11.92917442717927</v>
+        <v>9.023144513551735</v>
       </c>
       <c r="F25">
-        <v>54.4072250828703</v>
+        <v>50.79322039286163</v>
       </c>
       <c r="G25">
-        <v>3.749993939189542</v>
+        <v>2.061612633331757</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.66518446128165</v>
+        <v>7.150225932920638</v>
       </c>
       <c r="K25">
-        <v>26.67922789611611</v>
+        <v>31.30779395189384</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.61746936317399</v>
+        <v>13.01288960525869</v>
       </c>
       <c r="O25">
         <v>0</v>
